--- a/data/trans_orig/P14C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82EFBF74-116C-4623-B6DB-71D85736D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEE5D90-2B33-4D61-ABFB-6C82C7DC91C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8D5EA6C-1E22-4A30-B8E0-E8D1E1369DD8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7E77C2B-1677-44C7-8249-D793B1167D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>80,32%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,25 +104,28 @@
     <t>14,47%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>12,38%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,28 +134,28 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,82 +167,82 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,16 +251,16 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>60,6%</t>
+    <t>59,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -266,19 +269,19 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -287,16 +290,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,4%</t>
+    <t>40,11%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>0%</t>
@@ -314,82 +317,82 @@
     <t>77,4%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174436F0-4732-4A21-BF0C-554B82682A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C449C6C-E728-4E9C-8097-D0DF66DFE5A8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1015,13 +1018,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -1030,13 +1033,13 @@
         <v>7679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1045,13 +1048,13 @@
         <v>6844</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1060,13 +1063,13 @@
         <v>14524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1081,13 +1084,13 @@
         <v>147286</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>167</v>
@@ -1096,13 +1099,13 @@
         <v>195644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>323</v>
@@ -1111,18 +1114,18 @@
         <v>342930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1134,13 +1137,13 @@
         <v>87766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -1149,13 +1152,13 @@
         <v>69205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -1164,13 +1167,13 @@
         <v>156971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,13 +1188,13 @@
         <v>25668</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -1200,13 +1203,13 @@
         <v>12069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -1215,19 +1218,19 @@
         <v>37738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>8</v>
@@ -1236,13 +1239,13 @@
         <v>8417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1251,13 +1254,13 @@
         <v>3315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1266,13 +1269,13 @@
         <v>11732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1287,13 +1290,13 @@
         <v>121852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -1302,13 +1305,13 @@
         <v>84589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>191</v>
@@ -1317,18 +1320,18 @@
         <v>206441</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1340,13 +1343,13 @@
         <v>20662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -1355,13 +1358,13 @@
         <v>12795</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -1370,13 +1373,13 @@
         <v>33457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,13 +1394,13 @@
         <v>3143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1406,13 +1409,13 @@
         <v>1899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1421,19 +1424,19 @@
         <v>5042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1442,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1457,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1472,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,13 +1496,13 @@
         <v>23805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1508,13 +1511,13 @@
         <v>14694</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -1523,13 +1526,13 @@
         <v>38499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1549,13 @@
         <v>226727</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -1561,13 +1564,13 @@
         <v>236760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>432</v>
@@ -1576,13 +1579,13 @@
         <v>463487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,13 +1600,13 @@
         <v>50119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -1612,13 +1615,13 @@
         <v>48008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -1627,19 +1630,19 @@
         <v>98127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
@@ -1648,13 +1651,13 @@
         <v>16096</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1663,13 +1666,13 @@
         <v>10160</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -1678,13 +1681,13 @@
         <v>26256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1702,13 @@
         <v>292943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -1714,13 +1717,13 @@
         <v>294927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -1729,18 +1732,18 @@
         <v>587870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEE5D90-2B33-4D61-ABFB-6C82C7DC91C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5E3EFB-8170-4C5A-8E14-43756C6CB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7E77C2B-1677-44C7-8249-D793B1167D7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2764278-B1FC-40EF-AC3E-3CDDB477889B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
-    <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
+    <t>Población según el tiempo de diagnóstico de la diabetes en 2016 (Tasa respuesta: 8,36%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>80,32%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>14,47%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,16 +251,16 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>59,89%</t>
+    <t>60,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -269,19 +269,19 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -290,16 +290,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>40,11%</t>
+    <t>39,69%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -317,82 +317,82 @@
     <t>77,4%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C449C6C-E728-4E9C-8097-D0DF66DFE5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAC4CB5-FBB5-4CB6-A694-D6FA0B4627F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -928,7 +928,7 @@
         <v>126</v>
       </c>
       <c r="D4" s="7">
-        <v>118299</v>
+        <v>118298</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1081,7 +1081,7 @@
         <v>156</v>
       </c>
       <c r="D7" s="7">
-        <v>147286</v>
+        <v>147285</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
